--- a/Archivos/archivo_tradeview_1.xlsx
+++ b/Archivos/archivo_tradeview_1.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/782a3cd472fc979a/ITESO/7mo Semestre/Trading/LAB_2_CENT/LAB_2_CENT/archivos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\OneDrive\ITESO\7mo Semestre\Trading\LAB_2_CENT\LAB_2_CENT\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C27300EA-4741-4AAE-975D-895F8C8B8E37}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{C27300EA-4741-4AAE-975D-895F8C8B8E37}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{97873C0E-E598-4267-882A-1C7C2E0A4E67}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{37B15994-4C55-469B-BE9F-B9DEC68E13A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$N$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -986,7 +989,7 @@
   <dimension ref="A1:N85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Archivos/archivo_tradeview_1.xlsx
+++ b/Archivos/archivo_tradeview_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\OneDrive\ITESO\7mo Semestre\Trading\LAB_2_CENT\LAB_2_CENT\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{C27300EA-4741-4AAE-975D-895F8C8B8E37}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{97873C0E-E598-4267-882A-1C7C2E0A4E67}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{C27300EA-4741-4AAE-975D-895F8C8B8E37}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{300B7D82-4897-465C-A55D-515266D1E7C7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{37B15994-4C55-469B-BE9F-B9DEC68E13A0}"/>
   </bookViews>
@@ -989,7 +989,7 @@
   <dimension ref="A1:N85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
